--- a/KT1/KT1.2/KT1.2.1 Globale Planning/Globale Planning v1.0.0.xlsx
+++ b/KT1/KT1.2/KT1.2.1 Globale Planning/Globale Planning v1.0.0.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
+    <sheet name="Planning" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="78">
   <si>
     <t>Globale Planning</t>
   </si>
@@ -86,9 +87,6 @@
     <t>Week 7</t>
   </si>
   <si>
-    <t>3,25 uur</t>
-  </si>
-  <si>
     <t>1 uur</t>
   </si>
   <si>
@@ -104,23 +102,170 @@
     <t>Tim</t>
   </si>
   <si>
-    <t>Maken van wireframes</t>
-  </si>
-  <si>
     <t>Maken van globale planning</t>
   </si>
   <si>
-    <t>2,50 uur</t>
-  </si>
-  <si>
-    <t>0,75 uur</t>
+    <t>3 uur 15 min</t>
+  </si>
+  <si>
+    <t>2 uur 30 min</t>
+  </si>
+  <si>
+    <t>45 min</t>
+  </si>
+  <si>
+    <t>Maken van plan van aanpak</t>
+  </si>
+  <si>
+    <t>Maken offerte</t>
+  </si>
+  <si>
+    <t>Maken van prototype wireframes</t>
+  </si>
+  <si>
+    <t>Maken van Functioneel ontwerp</t>
+  </si>
+  <si>
+    <t>Maken van use case diagrammen en templates</t>
+  </si>
+  <si>
+    <t>Maken van prototype toelichting volgordelijkheid</t>
+  </si>
+  <si>
+    <t>Carnavals vakantie</t>
+  </si>
+  <si>
+    <t>Maken van technisch ontwerp</t>
+  </si>
+  <si>
+    <t>Maken van modeldictionairy</t>
+  </si>
+  <si>
+    <t>Maken van klassendiagram</t>
+  </si>
+  <si>
+    <t>Maken van datadictionairy</t>
+  </si>
+  <si>
+    <t>Maken van sequentiediagrammen</t>
+  </si>
+  <si>
+    <t>Maken van de taakverdeling voor de ontikkelomgeving</t>
+  </si>
+  <si>
+    <t>Maken van de materialenlijst van de hard en software van de ontwikkelomgeving</t>
+  </si>
+  <si>
+    <t>Maken van een backup procedure</t>
+  </si>
+  <si>
+    <t>Maken van verslag over de installatie, configuratie en testen van de testomgeving</t>
+  </si>
+  <si>
+    <t>Maken het gespreksverslag</t>
+  </si>
+  <si>
+    <t>2 uur 15 min</t>
+  </si>
+  <si>
+    <t>Maken van een organisatieonderzoek over reeds gebruikte databases</t>
+  </si>
+  <si>
+    <t>Maken van de database aan de hand van de genormaliseerde datadictionary</t>
+  </si>
+  <si>
+    <t>Maken van een procedure voor het aanleveren van databasegegevens</t>
+  </si>
+  <si>
+    <t>Maken van een genormaliseerd databaseontwerp door het datadictionary te normaliseren</t>
+  </si>
+  <si>
+    <t>Maken van een taakverdeling voor het realiseren van een applicatie</t>
+  </si>
+  <si>
+    <t>Maken van een materialen en middelenlijst voor het realiseren van de applicatie</t>
+  </si>
+  <si>
+    <t>Maken van een klassediagram vanuit visual studio</t>
+  </si>
+  <si>
+    <t>Programmeren aan de applicatie</t>
+  </si>
+  <si>
+    <t>Maken van een gedetaileerd (technisch) testplan : intergrale systeemtest</t>
+  </si>
+  <si>
+    <t>Maken van lijst met test tools</t>
+  </si>
+  <si>
+    <t>Uitvoeren van de tests en de resultaten van de test documenteren in een appart document</t>
+  </si>
+  <si>
+    <t>Aanpassingen doen aan de applicatie liggens aan mogelijke bugs die gevonden zijn</t>
+  </si>
+  <si>
+    <t>Maken van een implementatieplan (technische en organisatorisch), besproken met de opdrachtgever</t>
+  </si>
+  <si>
+    <t>Maken van een acceptatietest voor de opdrachtgever met uitleg hoe deze uitgevoerd moet worden</t>
+  </si>
+  <si>
+    <t>Uitvoeren van de acceptatietest</t>
+  </si>
+  <si>
+    <t>Maken van een verslag over de resultaten van de acceptatietest</t>
+  </si>
+  <si>
+    <t>Maken van een document over het implementeren van de applicatie in de prosuctieomgeving</t>
+  </si>
+  <si>
+    <t>Maken van een evaluatierapport van het implementatietraject</t>
+  </si>
+  <si>
+    <t>Globale planning</t>
+  </si>
+  <si>
+    <t>Kerntaak 1</t>
+  </si>
+  <si>
+    <t>Kerntaak 2</t>
+  </si>
+  <si>
+    <t>Kerntaak 3</t>
+  </si>
+  <si>
+    <t>0 uur</t>
+  </si>
+  <si>
+    <t>3 uur</t>
+  </si>
+  <si>
+    <t>2 uur</t>
+  </si>
+  <si>
+    <t>DEADLINE KERNTAAK 1</t>
+  </si>
+  <si>
+    <t>DEADLINE KERNTAAK 2</t>
+  </si>
+  <si>
+    <t>DEADLINE KERNTAAK 3</t>
+  </si>
+  <si>
+    <t>Startdatum</t>
+  </si>
+  <si>
+    <t>Einddatum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maken van een verslag over de resultaten van de acceptatietest </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,8 +294,45 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -178,6 +360,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -209,7 +397,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -217,6 +405,15 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="8" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -497,17 +694,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E60"/>
+  <dimension ref="A1:E73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView topLeftCell="A57" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E76" sqref="D76:E76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" customWidth="1"/>
-    <col min="3" max="3" width="38.42578125" customWidth="1"/>
+    <col min="3" max="3" width="91.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
   </cols>
   <sheetData>
@@ -553,7 +751,7 @@
         <v>8</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>7</v>
@@ -563,10 +761,10 @@
       <c r="A6" s="6"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>7</v>
@@ -580,174 +778,165 @@
         <v>10</v>
       </c>
       <c r="C7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
-        <v>43138</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="4"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="D10" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="4"/>
+        <v>46</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
+        <v>43138</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
         <v>43139</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="4"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
-        <v>43140</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="4"/>
-    </row>
-    <row r="14" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
+      <c r="C13" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>6</v>
-      </c>
+      <c r="A15" s="6"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
-        <v>43143</v>
+        <v>43140</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="D16" s="4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E16" s="4"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
-        <v>43144</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="A17" s="6"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="4"/>
       <c r="E17" s="4"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
-        <v>43145</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="A18" s="6"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="4"/>
       <c r="E18" s="4"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
-        <v>43146</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="A19" s="6"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="4"/>
       <c r="E19" s="4"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
-        <v>43147</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="A20" s="6"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="4"/>
       <c r="E20" s="4"/>
     </row>
     <row r="22" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -773,72 +962,72 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
-        <v>43150</v>
+        <v>43143</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="C24" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" s="4"/>
       <c r="E24" s="4"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
-        <v>43151</v>
+        <v>43144</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="C25" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" s="4"/>
       <c r="E25" s="4"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
-        <v>43152</v>
+        <v>43145</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="C26" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26" s="4"/>
       <c r="E26" s="4"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
-        <v>43153</v>
+        <v>43146</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="C27" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" s="4"/>
       <c r="E27" s="4"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
-        <v>43154</v>
+        <v>43147</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="C28" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" s="4"/>
       <c r="E28" s="4"/>
     </row>
     <row r="30" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -864,343 +1053,1874 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
-        <v>43157</v>
+        <v>43150</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C32" s="4"/>
+      <c r="C32" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E32" s="4"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="6"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="6">
+        <v>43151</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E34" s="4"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="6"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="6">
+        <v>43152</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E36" s="4"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="6"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="6">
+        <v>43153</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E38" s="4"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="6">
+        <v>43154</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E39" s="4"/>
+    </row>
+    <row r="41" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="6">
+        <v>43157</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E43" s="4"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="6">
+        <v>43158</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E44" s="4"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="6">
+        <v>43159</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E45" s="4"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="6">
+        <v>43132</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E46" s="4"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="6">
+        <v>43161</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E47" s="4"/>
+    </row>
+    <row r="49" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="6">
+        <v>43164</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E51" s="4"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="6">
+        <v>43165</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E52" s="4"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="6">
+        <v>43166</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E53" s="4"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="6">
+        <v>43167</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E54" s="4"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="6">
+        <v>43168</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E55" s="4"/>
+    </row>
+    <row r="57" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="6">
+        <v>43171</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E59" s="4"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="6">
+        <v>43172</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E60" s="4"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="6">
+        <v>43173</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E61" s="4"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="6">
+        <v>43174</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E62" s="4"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="6">
+        <v>43175</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E63" s="4"/>
+    </row>
+    <row r="65" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A65" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B65" s="3"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="6">
+        <v>43178</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E67" s="4"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="6"/>
+      <c r="B68" s="4"/>
+      <c r="C68" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="6">
+        <v>43179</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E69" s="4"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="6"/>
+      <c r="B70" s="4"/>
+      <c r="C70" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D70" s="4"/>
+      <c r="E70" s="4"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="6">
+        <v>43180</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E71" s="4"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="6">
+        <v>43178</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E72" s="4"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="6">
+        <v>43182</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C73" s="4"/>
+      <c r="D73" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E73" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K102"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.85546875" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="3" max="3" width="94.140625" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="7" max="7" width="10" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="13" max="13" width="9.7109375" customWidth="1"/>
+    <col min="14" max="14" width="10.85546875" customWidth="1"/>
+    <col min="15" max="15" width="9.42578125" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A1" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="A3" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="H3" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="I3" s="8"/>
+      <c r="J3" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="K3" s="8"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+    </row>
+    <row r="5" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="8"/>
+      <c r="H5" s="6">
+        <v>43136</v>
+      </c>
+      <c r="I5" s="15"/>
+      <c r="J5" s="6">
+        <v>43182</v>
+      </c>
+      <c r="K5" s="15"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="8"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>43136</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="8"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="8"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>43137</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="8"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="8"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="8"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="8"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
+        <v>43138</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="8"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
+        <v>43139</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="8"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="6"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="8"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="6"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="8"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="6"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="8"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
+        <v>43140</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" s="8"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="6"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" s="8"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="6"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" s="8"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+    </row>
+    <row r="22" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="8"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F23" s="8"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="6">
+        <v>43143</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="8"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="6">
+        <v>43144</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="8"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="6">
+        <v>43145</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="8"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="6">
+        <v>43146</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="8"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="6">
+        <v>43147</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="8"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+    </row>
+    <row r="30" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="8"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F31" s="8"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="6">
+        <v>43150</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="D32" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E32" s="4"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="6">
-        <v>43158</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C33" s="4"/>
+      <c r="E32" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F32" s="8"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="6"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="D33" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E33" s="4"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="6">
-        <v>43159</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C34" s="4"/>
+      <c r="E33" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F33" s="8"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="6"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="D34" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E34" s="4"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="6">
-        <v>43132</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C35" s="4"/>
+      <c r="E34" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F34" s="8"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="6"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="D35" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E35" s="4"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="6">
-        <v>43161</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C36" s="4"/>
+      <c r="E35" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F35" s="8"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="6"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="D36" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E36" s="4"/>
-    </row>
-    <row r="38" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A38" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="6">
-        <v>43164</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="E36" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F36" s="8"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="6">
+        <v>43151</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E37" s="4"/>
+      <c r="F37" s="8"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="6"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="8"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="6"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="8"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="6"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D40" s="4"/>
       <c r="E40" s="4"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="6">
-        <v>43165</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E41" s="4"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F40" s="8"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="14">
+        <v>43151</v>
+      </c>
+      <c r="B41" s="13"/>
+      <c r="C41" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="8"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
-        <v>43166</v>
+        <v>43152</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C42" s="4"/>
+      <c r="C42" s="7"/>
       <c r="D42" s="4" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="E42" s="4"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="6">
+      <c r="F42" s="8"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="6"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="8"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="6">
+        <v>43153</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44" s="7"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="8"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="6">
+        <v>43154</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C45" s="7"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="8"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="8"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+    </row>
+    <row r="47" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A47" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B47" s="8"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="8"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+    </row>
+    <row r="49" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="8"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F50" s="8"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="6">
+        <v>43150</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="8"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="6"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="8"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="6">
+        <v>43151</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="8"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="14">
+        <v>43151</v>
+      </c>
+      <c r="B54" s="13"/>
+      <c r="C54" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="D54" s="13"/>
+      <c r="E54" s="13"/>
+      <c r="F54" s="8"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="6">
+        <v>43152</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C55" s="7"/>
+      <c r="D55" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E55" s="4"/>
+      <c r="F55" s="8"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="6"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="8"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="6">
+        <v>43153</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C57" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E57" s="4"/>
+      <c r="F57" s="8"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="6"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="8"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="6">
+        <v>43154</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C59" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E59" s="4"/>
+      <c r="F59" s="8"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="6"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="8"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="8"/>
+      <c r="B61" s="8"/>
+      <c r="C61" s="8"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+    </row>
+    <row r="62" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="8"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F63" s="8"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="6">
+        <v>43157</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C64" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E64" s="4"/>
+      <c r="F64" s="8"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="6"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="8"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="6">
+        <v>43158</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C66" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E66" s="4"/>
+      <c r="F66" s="8"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="6"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="8"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="6">
+        <v>43159</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C68" s="7"/>
+      <c r="D68" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E68" s="4"/>
+      <c r="F68" s="8"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="6">
+        <v>43132</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C69" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E69" s="4"/>
+      <c r="F69" s="8"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="6">
+        <v>43161</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C70" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E70" s="4"/>
+      <c r="F70" s="8"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="8"/>
+      <c r="B71" s="8"/>
+      <c r="C71" s="8"/>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+    </row>
+    <row r="72" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A72" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B72" s="3"/>
+      <c r="C72" s="3"/>
+      <c r="D72" s="3"/>
+      <c r="E72" s="3"/>
+      <c r="F72" s="8"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F73" s="8"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="6">
+        <v>43164</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C74" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E74" s="4"/>
+      <c r="F74" s="8"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="6">
+        <v>43165</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C75" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E75" s="4"/>
+      <c r="F75" s="8"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="6">
+        <v>43166</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C76" s="7"/>
+      <c r="D76" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E76" s="4"/>
+      <c r="F76" s="8"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="6">
         <v>43167</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B77" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E43" s="4"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="6">
+      <c r="C77" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E77" s="4"/>
+      <c r="F77" s="8"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="6">
         <v>43168</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B78" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E44" s="4"/>
-    </row>
-    <row r="46" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A46" s="2" t="s">
+      <c r="C78" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E78" s="4"/>
+      <c r="F78" s="8"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="8"/>
+      <c r="B79" s="8"/>
+      <c r="C79" s="8"/>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+    </row>
+    <row r="80" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A80" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="5" t="s">
+      <c r="B80" s="3"/>
+      <c r="C80" s="3"/>
+      <c r="D80" s="3"/>
+      <c r="E80" s="3"/>
+      <c r="F80" s="8"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B81" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="C81" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D47" s="5" t="s">
+      <c r="D81" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E47" s="5" t="s">
+      <c r="E81" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="6">
+      <c r="F81" s="8"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="6">
         <v>43171</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B82" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E48" s="4"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="6">
+      <c r="C82" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E82" s="4"/>
+      <c r="F82" s="8"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="6"/>
+      <c r="B83" s="4"/>
+      <c r="C83" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D83" s="4"/>
+      <c r="E83" s="4"/>
+      <c r="F83" s="8"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="6">
         <v>43172</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B84" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E49" s="4"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="6">
+      <c r="C84" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E84" s="4"/>
+      <c r="F84" s="8"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="6">
         <v>43173</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B85" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E50" s="4"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="6">
+      <c r="C85" s="4"/>
+      <c r="D85" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E85" s="4"/>
+      <c r="F85" s="8"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="6">
         <v>43174</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="B86" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E51" s="4"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="6">
+      <c r="C86" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E86" s="4"/>
+      <c r="F86" s="8"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="6">
         <v>43175</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="B87" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C52" s="4"/>
-      <c r="D52" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E52" s="4"/>
-    </row>
-    <row r="54" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A54" s="2" t="s">
+      <c r="C87" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E87" s="4"/>
+      <c r="F87" s="8"/>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="14">
+        <v>43175</v>
+      </c>
+      <c r="B88" s="13"/>
+      <c r="C88" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D88" s="13"/>
+      <c r="E88" s="13"/>
+      <c r="F88" s="8"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="8"/>
+      <c r="B89" s="8"/>
+      <c r="C89" s="8"/>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+    </row>
+    <row r="90" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A90" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B90" s="8"/>
+      <c r="C90" s="8"/>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="8"/>
+      <c r="B91" s="8"/>
+      <c r="C91" s="8"/>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+    </row>
+    <row r="92" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A92" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B54" s="3"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
-      <c r="E54" s="3"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="5" t="s">
+      <c r="B92" s="3"/>
+      <c r="C92" s="3"/>
+      <c r="D92" s="3"/>
+      <c r="E92" s="3"/>
+      <c r="F92" s="8"/>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="B93" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C55" s="5" t="s">
+      <c r="C93" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D55" s="5" t="s">
+      <c r="D93" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E55" s="5" t="s">
+      <c r="E93" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="6">
+      <c r="F93" s="8"/>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="6">
         <v>43178</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="B94" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C56" s="4"/>
-      <c r="D56" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E56" s="4"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="6">
+      <c r="C94" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E94" s="4"/>
+      <c r="F94" s="8"/>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="6">
         <v>43179</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="B95" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C57" s="4"/>
-      <c r="D57" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E57" s="4"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="6">
+      <c r="C95" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E95" s="4"/>
+      <c r="F95" s="8"/>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="6"/>
+      <c r="B96" s="4"/>
+      <c r="C96" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D96" s="4"/>
+      <c r="E96" s="4"/>
+      <c r="F96" s="8"/>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="6">
         <v>43180</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="B97" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C58" s="4"/>
-      <c r="D58" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E58" s="4"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="6">
+      <c r="C97" s="12"/>
+      <c r="D97" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E97" s="4"/>
+      <c r="F97" s="8"/>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" s="6">
         <v>43178</v>
       </c>
-      <c r="B59" s="4" t="s">
+      <c r="B98" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C59" s="4"/>
-      <c r="D59" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E59" s="4"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="6">
+      <c r="C98" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E98" s="4"/>
+      <c r="F98" s="8"/>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" s="6"/>
+      <c r="B99" s="4"/>
+      <c r="C99" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D99" s="4"/>
+      <c r="E99" s="4"/>
+      <c r="F99" s="8"/>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" s="6">
         <v>43182</v>
       </c>
-      <c r="B60" s="4" t="s">
+      <c r="B100" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C60" s="4"/>
-      <c r="D60" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E60" s="4"/>
+      <c r="C100" s="4"/>
+      <c r="D100" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E100" s="4"/>
+      <c r="F100" s="8"/>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" s="14">
+        <v>43182</v>
+      </c>
+      <c r="B101" s="13"/>
+      <c r="C101" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="D101" s="13"/>
+      <c r="E101" s="13"/>
+      <c r="F101" s="8"/>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" s="8"/>
+      <c r="B102" s="8"/>
+      <c r="C102" s="8"/>
+      <c r="D102" s="8"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
--- a/KT1/KT1.2/KT1.2.1 Globale Planning/Globale Planning v1.0.0.xlsx
+++ b/KT1/KT1.2/KT1.2.1 Globale Planning/Globale Planning v1.0.0.xlsx
@@ -1570,7 +1570,7 @@
   <dimension ref="A1:K102"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2100,7 +2100,7 @@
         <v>41</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="E37" s="4"/>
       <c r="F37" s="8"/>
@@ -2324,7 +2324,7 @@
         <v>47</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="E57" s="4"/>
       <c r="F57" s="8"/>
@@ -2350,7 +2350,7 @@
         <v>48</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="E59" s="4"/>
       <c r="F59" s="8"/>
@@ -2412,7 +2412,7 @@
         <v>51</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="E64" s="4"/>
       <c r="F64" s="8"/>
@@ -2438,7 +2438,7 @@
         <v>53</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="E66" s="4"/>
       <c r="F66" s="8"/>
@@ -2478,7 +2478,7 @@
         <v>56</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="E69" s="4"/>
       <c r="F69" s="8"/>
@@ -2494,7 +2494,7 @@
         <v>54</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="E70" s="4"/>
       <c r="F70" s="8"/>
@@ -2546,7 +2546,7 @@
         <v>54</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="E74" s="4"/>
       <c r="F74" s="8"/>
@@ -2562,7 +2562,7 @@
         <v>54</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="E75" s="4"/>
       <c r="F75" s="8"/>
@@ -2592,7 +2592,7 @@
         <v>54</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="E77" s="4"/>
       <c r="F77" s="8"/>
@@ -2608,7 +2608,7 @@
         <v>54</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="E78" s="4"/>
       <c r="F78" s="8"/>
@@ -2660,7 +2660,7 @@
         <v>57</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="E82" s="4"/>
       <c r="F82" s="8"/>
@@ -2686,7 +2686,7 @@
         <v>58</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="E84" s="4"/>
       <c r="F84" s="8"/>
@@ -2716,7 +2716,7 @@
         <v>58</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="E86" s="4"/>
       <c r="F86" s="8"/>
@@ -2732,7 +2732,7 @@
         <v>58</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="E87" s="4"/>
       <c r="F87" s="8"/>
@@ -2814,7 +2814,7 @@
         <v>59</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="E94" s="4"/>
       <c r="F94" s="8"/>
@@ -2830,7 +2830,7 @@
         <v>61</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="E95" s="4"/>
       <c r="F95" s="8"/>
@@ -2870,7 +2870,7 @@
         <v>63</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="E98" s="4"/>
       <c r="F98" s="8"/>
@@ -2894,7 +2894,7 @@
       </c>
       <c r="C100" s="4"/>
       <c r="D100" s="4" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="E100" s="4"/>
       <c r="F100" s="8"/>

--- a/KT1/KT1.2/KT1.2.1 Globale Planning/Globale Planning v1.0.0.xlsx
+++ b/KT1/KT1.2/KT1.2.1 Globale Planning/Globale Planning v1.0.0.xlsx
@@ -1570,7 +1570,7 @@
   <dimension ref="A1:K102"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/KT1/KT1.2/KT1.2.1 Globale Planning/Globale Planning v1.0.0.xlsx
+++ b/KT1/KT1.2/KT1.2.1 Globale Planning/Globale Planning v1.0.0.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="86">
   <si>
     <t>Globale Planning</t>
   </si>
@@ -259,13 +259,64 @@
   </si>
   <si>
     <t xml:space="preserve">Maken van een verslag over de resultaten van de acceptatietest </t>
+  </si>
+  <si>
+    <t>Voorafgaande taken</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>●</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.7"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Maken van use case diagrammen en templates</t>
+    </r>
+  </si>
+  <si>
+    <t>● Maken van prototype toelichting volgordelijkheid</t>
+  </si>
+  <si>
+    <t>● Maken van modeldictionairy</t>
+  </si>
+  <si>
+    <t>● Maken van klassendiagram</t>
+  </si>
+  <si>
+    <t>● Maken van datadictionairy</t>
+  </si>
+  <si>
+    <t>● Maken van sequentiediagrammen</t>
+  </si>
+  <si>
+    <t>↓</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -331,8 +382,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="7.7"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -369,6 +432,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -397,7 +466,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -414,6 +483,10 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="8" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -1567,10 +1640,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K102"/>
+  <dimension ref="A1:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1578,24 +1651,25 @@
     <col min="1" max="1" width="12.85546875" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" customWidth="1"/>
     <col min="3" max="3" width="94.140625" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
-    <col min="7" max="7" width="10" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" customWidth="1"/>
-    <col min="9" max="9" width="9.28515625" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" customWidth="1"/>
-    <col min="14" max="14" width="10.85546875" customWidth="1"/>
-    <col min="15" max="15" width="9.42578125" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" customWidth="1"/>
+    <col min="4" max="4" width="49" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" customWidth="1"/>
+    <col min="8" max="8" width="10" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" customWidth="1"/>
+    <col min="10" max="10" width="9.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" customWidth="1"/>
+    <col min="14" max="14" width="9.7109375" customWidth="1"/>
+    <col min="15" max="15" width="10.85546875" customWidth="1"/>
+    <col min="16" max="16" width="9.42578125" customWidth="1"/>
+    <col min="17" max="17" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="11" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="21" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" ht="21" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
         <v>66</v>
       </c>
@@ -1604,28 +1678,30 @@
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
-      <c r="H3" s="9" t="s">
+      <c r="G3" s="8"/>
+      <c r="I3" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="I3" s="8"/>
-      <c r="J3" s="9" t="s">
+      <c r="J3" s="8"/>
+      <c r="K3" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="K3" s="8"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L3" s="8"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
-      <c r="H4" s="8"/>
+      <c r="G4" s="8"/>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
-    </row>
-    <row r="5" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L4" s="8"/>
+    </row>
+    <row r="5" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
@@ -1633,17 +1709,18 @@
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
-      <c r="F5" s="8"/>
-      <c r="H5" s="6">
+      <c r="F5" s="3"/>
+      <c r="G5" s="8"/>
+      <c r="I5" s="6">
         <v>43136</v>
       </c>
-      <c r="I5" s="15"/>
-      <c r="J5" s="6">
+      <c r="J5" s="15"/>
+      <c r="K5" s="6">
         <v>43182</v>
       </c>
-      <c r="K5" s="15"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L5" s="15"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>1</v>
       </c>
@@ -1654,14 +1731,17 @@
         <v>4</v>
       </c>
       <c r="D6" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="F6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="8"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>43136</v>
       </c>
@@ -1671,89 +1751,95 @@
       <c r="C7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="4"/>
+      <c r="E7" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="F7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="8"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G7" s="8"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="4"/>
+      <c r="E8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="F8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="8"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G8" s="8"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>43137</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="16"/>
+      <c r="E9" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="F9" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="8"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G9" s="8"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4" t="s">
+      <c r="B10" s="16"/>
+      <c r="C10" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="16"/>
+      <c r="E10" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="F10" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="8"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G10" s="8"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4" t="s">
+      <c r="B11" s="16"/>
+      <c r="C11" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="16"/>
+      <c r="E11" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="F11" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="8"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G11" s="8"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4" t="s">
+      <c r="B12" s="16"/>
+      <c r="C12" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="16"/>
+      <c r="E12" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="F12" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="F12" s="8"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G12" s="8"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>43138</v>
       </c>
@@ -1761,73 +1847,78 @@
         <v>11</v>
       </c>
       <c r="C13" s="4"/>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="4"/>
+      <c r="E13" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="8"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F13" s="4"/>
+      <c r="G13" s="8"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>43139</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="16"/>
+      <c r="E14" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="F14" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="F14" s="8"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G14" s="8"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4" t="s">
+      <c r="B15" s="16"/>
+      <c r="C15" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="16"/>
+      <c r="E15" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="F15" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="F15" s="8"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G15" s="8"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4" t="s">
+      <c r="B16" s="16"/>
+      <c r="C16" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="16"/>
+      <c r="E16" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="F16" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="F16" s="8"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16" s="8"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4" t="s">
+      <c r="B17" s="16"/>
+      <c r="C17" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="16"/>
+      <c r="E17" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="F17" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="F17" s="8"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17" s="8"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>43140</v>
       </c>
@@ -1835,53 +1926,59 @@
         <v>13</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>71</v>
+        <v>32</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>85</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F18" s="8"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" s="8"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="4"/>
-      <c r="C19" s="4" t="s">
-        <v>34</v>
-      </c>
+      <c r="C19" s="4"/>
       <c r="D19" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E19" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="F19" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F19" s="8"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19" s="8"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="4"/>
-      <c r="C20" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="C20" s="4"/>
       <c r="D20" s="4" t="s">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F20" s="8"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G20" s="8"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
-    </row>
-    <row r="22" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="G21" s="8"/>
+    </row>
+    <row r="22" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>14</v>
       </c>
@@ -1889,9 +1986,10 @@
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
-      <c r="F22" s="8"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F22" s="3"/>
+      <c r="G22" s="8"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>1</v>
       </c>
@@ -1901,15 +1999,16 @@
       <c r="C23" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="5"/>
+      <c r="E23" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="F23" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F23" s="8"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G23" s="8"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>43143</v>
       </c>
@@ -1921,23 +2020,25 @@
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
-      <c r="F24" s="8"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F24" s="4"/>
+      <c r="G24" s="8"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>43144</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="8"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="8"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>43145</v>
       </c>
@@ -1949,23 +2050,25 @@
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
-      <c r="F26" s="8"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F26" s="4"/>
+      <c r="G26" s="8"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>43146</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="8"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="8"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>43147</v>
       </c>
@@ -1977,17 +2080,19 @@
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
-      <c r="F28" s="8"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F28" s="4"/>
+      <c r="G28" s="8"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
-    </row>
-    <row r="30" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="G29" s="8"/>
+    </row>
+    <row r="30" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>15</v>
       </c>
@@ -1995,9 +2100,10 @@
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
-      <c r="F30" s="8"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F30" s="3"/>
+      <c r="G30" s="8"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>1</v>
       </c>
@@ -2007,15 +2113,16 @@
       <c r="C31" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="5"/>
+      <c r="E31" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="F31" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F31" s="8"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G31" s="8"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>43150</v>
       </c>
@@ -2023,119 +2130,130 @@
         <v>9</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D32" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D32" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="E32" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E32" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F32" s="8"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F32" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G32" s="8"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
       <c r="B33" s="4"/>
-      <c r="C33" s="4" t="s">
-        <v>38</v>
-      </c>
+      <c r="C33" s="4"/>
       <c r="D33" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E33" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E33" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F33" s="8"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F33" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G33" s="8"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
       <c r="B34" s="4"/>
-      <c r="C34" s="4" t="s">
-        <v>39</v>
-      </c>
+      <c r="C34" s="4"/>
       <c r="D34" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E34" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E34" s="4" t="s">
+      <c r="F34" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F34" s="8"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G34" s="8"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
       <c r="B35" s="4"/>
-      <c r="C35" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="C35" s="4"/>
       <c r="D35" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E35" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E35" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F35" s="8"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F35" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G35" s="8"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
       <c r="B36" s="4"/>
-      <c r="C36" s="4" t="s">
-        <v>36</v>
-      </c>
+      <c r="C36" s="4"/>
       <c r="D36" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E36" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E36" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F36" s="8"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F36" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G36" s="8"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <v>43151</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C37" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="D37" s="16"/>
+      <c r="E37" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="E37" s="4"/>
-      <c r="F37" s="8"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F37" s="16"/>
+      <c r="G37" s="8"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4" t="s">
+      <c r="B38" s="16"/>
+      <c r="C38" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="8"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="8"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4" t="s">
+      <c r="B39" s="16"/>
+      <c r="C39" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="8"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="8"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4" t="s">
+      <c r="B40" s="16"/>
+      <c r="C40" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="8"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D40" s="16"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="8"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="14">
         <v>43151</v>
       </c>
@@ -2145,9 +2263,10 @@
       </c>
       <c r="D41" s="13"/>
       <c r="E41" s="13"/>
-      <c r="F41" s="8"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F41" s="13"/>
+      <c r="G41" s="8"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
         <v>43152</v>
       </c>
@@ -2155,33 +2274,36 @@
         <v>11</v>
       </c>
       <c r="C42" s="7"/>
-      <c r="D42" s="4" t="s">
+      <c r="D42" s="7"/>
+      <c r="E42" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E42" s="4"/>
-      <c r="F42" s="8"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F42" s="4"/>
+      <c r="G42" s="8"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
       <c r="B43" s="4"/>
       <c r="C43" s="7"/>
-      <c r="D43" s="4"/>
+      <c r="D43" s="7"/>
       <c r="E43" s="4"/>
-      <c r="F43" s="8"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F43" s="4"/>
+      <c r="G43" s="8"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
         <v>43153</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C44" s="7"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="8"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="8"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
         <v>43154</v>
       </c>
@@ -2189,19 +2311,21 @@
         <v>13</v>
       </c>
       <c r="C45" s="7"/>
-      <c r="D45" s="4"/>
+      <c r="D45" s="7"/>
       <c r="E45" s="4"/>
-      <c r="F45" s="8"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F45" s="4"/>
+      <c r="G45" s="8"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
-    </row>
-    <row r="47" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="G46" s="8"/>
+    </row>
+    <row r="47" spans="1:7" ht="21" x14ac:dyDescent="0.35">
       <c r="A47" s="10" t="s">
         <v>67</v>
       </c>
@@ -2210,16 +2334,18 @@
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G47" s="8"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
-    </row>
-    <row r="49" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="G48" s="8"/>
+    </row>
+    <row r="49" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>15</v>
       </c>
@@ -2227,9 +2353,10 @@
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
-      <c r="F49" s="8"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F49" s="3"/>
+      <c r="G49" s="8"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>1</v>
       </c>
@@ -2239,15 +2366,16 @@
       <c r="C50" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D50" s="5" t="s">
+      <c r="D50" s="5"/>
+      <c r="E50" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E50" s="5" t="s">
+      <c r="F50" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F50" s="8"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G50" s="8"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="6">
         <v>43150</v>
       </c>
@@ -2257,29 +2385,32 @@
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
-      <c r="F51" s="8"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F51" s="4"/>
+      <c r="G51" s="8"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
-      <c r="F52" s="8"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F52" s="4"/>
+      <c r="G52" s="8"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="6">
         <v>43151</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="B53" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C53" s="4"/>
-      <c r="D53" s="4"/>
-      <c r="E53" s="4"/>
-      <c r="F53" s="8"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C53" s="16"/>
+      <c r="D53" s="16"/>
+      <c r="E53" s="16"/>
+      <c r="F53" s="16"/>
+      <c r="G53" s="8"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="14">
         <v>43151</v>
       </c>
@@ -2289,9 +2420,10 @@
       </c>
       <c r="D54" s="13"/>
       <c r="E54" s="13"/>
-      <c r="F54" s="8"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F54" s="13"/>
+      <c r="G54" s="8"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="6">
         <v>43152</v>
       </c>
@@ -2299,47 +2431,51 @@
         <v>11</v>
       </c>
       <c r="C55" s="7"/>
-      <c r="D55" s="4" t="s">
+      <c r="D55" s="7"/>
+      <c r="E55" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E55" s="4"/>
-      <c r="F55" s="8"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F55" s="4"/>
+      <c r="G55" s="8"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="6"/>
       <c r="B56" s="4"/>
       <c r="C56" s="7"/>
-      <c r="D56" s="4"/>
+      <c r="D56" s="7"/>
       <c r="E56" s="4"/>
-      <c r="F56" s="8"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F56" s="4"/>
+      <c r="G56" s="8"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="6">
         <v>43153</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="B57" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C57" s="12" t="s">
+      <c r="C57" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="D57" s="4" t="s">
+      <c r="D57" s="18"/>
+      <c r="E57" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="E57" s="4"/>
-      <c r="F57" s="8"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F57" s="16"/>
+      <c r="G57" s="8"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="6"/>
-      <c r="B58" s="4"/>
-      <c r="C58" s="12" t="s">
+      <c r="B58" s="16"/>
+      <c r="C58" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="D58" s="4"/>
-      <c r="E58" s="4"/>
-      <c r="F58" s="8"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D58" s="18"/>
+      <c r="E58" s="16"/>
+      <c r="F58" s="16"/>
+      <c r="G58" s="8"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="6">
         <v>43154</v>
       </c>
@@ -2349,31 +2485,34 @@
       <c r="C59" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="D59" s="4" t="s">
+      <c r="D59" s="12"/>
+      <c r="E59" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="E59" s="4"/>
-      <c r="F59" s="8"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F59" s="4"/>
+      <c r="G59" s="8"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="6"/>
       <c r="B60" s="4"/>
       <c r="C60" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="D60" s="4"/>
+      <c r="D60" s="12"/>
       <c r="E60" s="4"/>
-      <c r="F60" s="8"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F60" s="4"/>
+      <c r="G60" s="8"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="8"/>
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
-    </row>
-    <row r="62" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="G61" s="8"/>
+    </row>
+    <row r="62" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>16</v>
       </c>
@@ -2381,9 +2520,10 @@
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
-      <c r="F62" s="8"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F62" s="3"/>
+      <c r="G62" s="8"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>1</v>
       </c>
@@ -2393,15 +2533,16 @@
       <c r="C63" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D63" s="5" t="s">
+      <c r="D63" s="5"/>
+      <c r="E63" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E63" s="5" t="s">
+      <c r="F63" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F63" s="8"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G63" s="8"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="6">
         <v>43157</v>
       </c>
@@ -2411,49 +2552,53 @@
       <c r="C64" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="D64" s="4" t="s">
+      <c r="D64" s="12"/>
+      <c r="E64" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="E64" s="4"/>
-      <c r="F64" s="8"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F64" s="4"/>
+      <c r="G64" s="8"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="6"/>
       <c r="B65" s="4"/>
       <c r="C65" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="D65" s="4"/>
+      <c r="D65" s="12"/>
       <c r="E65" s="4"/>
-      <c r="F65" s="8"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F65" s="4"/>
+      <c r="G65" s="8"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="6">
         <v>43158</v>
       </c>
-      <c r="B66" s="4" t="s">
+      <c r="B66" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C66" s="12" t="s">
+      <c r="C66" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="D66" s="4" t="s">
+      <c r="D66" s="18"/>
+      <c r="E66" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="E66" s="4"/>
-      <c r="F66" s="8"/>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F66" s="16"/>
+      <c r="G66" s="8"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="6"/>
       <c r="B67" s="4"/>
       <c r="C67" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="D67" s="4"/>
+      <c r="D67" s="12"/>
       <c r="E67" s="4"/>
-      <c r="F67" s="8"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F67" s="4"/>
+      <c r="G67" s="8"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="6">
         <v>43159</v>
       </c>
@@ -2461,29 +2606,31 @@
         <v>11</v>
       </c>
       <c r="C68" s="7"/>
-      <c r="D68" s="4" t="s">
+      <c r="D68" s="7"/>
+      <c r="E68" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E68" s="4"/>
-      <c r="F68" s="8"/>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F68" s="4"/>
+      <c r="G68" s="8"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="6">
         <v>43132</v>
       </c>
-      <c r="B69" s="4" t="s">
+      <c r="B69" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C69" s="12" t="s">
+      <c r="C69" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="D69" s="4" t="s">
+      <c r="D69" s="18"/>
+      <c r="E69" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="E69" s="4"/>
-      <c r="F69" s="8"/>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F69" s="16"/>
+      <c r="G69" s="8"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="6">
         <v>43161</v>
       </c>
@@ -2493,21 +2640,23 @@
       <c r="C70" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="D70" s="4" t="s">
+      <c r="D70" s="12"/>
+      <c r="E70" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="E70" s="4"/>
-      <c r="F70" s="8"/>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F70" s="4"/>
+      <c r="G70" s="8"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="8"/>
       <c r="B71" s="8"/>
       <c r="C71" s="8"/>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
-    </row>
-    <row r="72" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="G71" s="8"/>
+    </row>
+    <row r="72" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>17</v>
       </c>
@@ -2515,9 +2664,10 @@
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
-      <c r="F72" s="8"/>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F72" s="3"/>
+      <c r="G72" s="8"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
         <v>1</v>
       </c>
@@ -2527,15 +2677,16 @@
       <c r="C73" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D73" s="5" t="s">
+      <c r="D73" s="5"/>
+      <c r="E73" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E73" s="5" t="s">
+      <c r="F73" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F73" s="8"/>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G73" s="8"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="6">
         <v>43164</v>
       </c>
@@ -2545,29 +2696,31 @@
       <c r="C74" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="D74" s="4" t="s">
+      <c r="D74" s="12"/>
+      <c r="E74" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="E74" s="4"/>
-      <c r="F74" s="8"/>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F74" s="4"/>
+      <c r="G74" s="8"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="6">
         <v>43165</v>
       </c>
-      <c r="B75" s="4" t="s">
+      <c r="B75" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C75" s="12" t="s">
+      <c r="C75" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="D75" s="4" t="s">
+      <c r="D75" s="18"/>
+      <c r="E75" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="E75" s="4"/>
-      <c r="F75" s="8"/>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F75" s="16"/>
+      <c r="G75" s="8"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="6">
         <v>43166</v>
       </c>
@@ -2575,29 +2728,31 @@
         <v>11</v>
       </c>
       <c r="C76" s="7"/>
-      <c r="D76" s="4" t="s">
+      <c r="D76" s="7"/>
+      <c r="E76" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E76" s="4"/>
-      <c r="F76" s="8"/>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F76" s="4"/>
+      <c r="G76" s="8"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="6">
         <v>43167</v>
       </c>
-      <c r="B77" s="4" t="s">
+      <c r="B77" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C77" s="12" t="s">
+      <c r="C77" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="D77" s="4" t="s">
+      <c r="D77" s="18"/>
+      <c r="E77" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="E77" s="4"/>
-      <c r="F77" s="8"/>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F77" s="16"/>
+      <c r="G77" s="8"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="6">
         <v>43168</v>
       </c>
@@ -2607,21 +2762,23 @@
       <c r="C78" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="D78" s="4" t="s">
+      <c r="D78" s="12"/>
+      <c r="E78" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="E78" s="4"/>
-      <c r="F78" s="8"/>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F78" s="4"/>
+      <c r="G78" s="8"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="8"/>
       <c r="B79" s="8"/>
       <c r="C79" s="8"/>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
-    </row>
-    <row r="80" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="G79" s="8"/>
+    </row>
+    <row r="80" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>18</v>
       </c>
@@ -2629,9 +2786,10 @@
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="8"/>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F80" s="3"/>
+      <c r="G80" s="8"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
         <v>1</v>
       </c>
@@ -2641,15 +2799,16 @@
       <c r="C81" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D81" s="5" t="s">
+      <c r="D81" s="5"/>
+      <c r="E81" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E81" s="5" t="s">
+      <c r="F81" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F81" s="8"/>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G81" s="8"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="6">
         <v>43171</v>
       </c>
@@ -2659,39 +2818,42 @@
       <c r="C82" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D82" s="4" t="s">
+      <c r="D82" s="12"/>
+      <c r="E82" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="E82" s="4"/>
-      <c r="F82" s="8"/>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F82" s="4"/>
+      <c r="G82" s="8"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="6"/>
       <c r="B83" s="4"/>
       <c r="C83" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="D83" s="4"/>
+      <c r="D83" s="12"/>
       <c r="E83" s="4"/>
-      <c r="F83" s="8"/>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F83" s="4"/>
+      <c r="G83" s="8"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="6">
         <v>43172</v>
       </c>
-      <c r="B84" s="4" t="s">
+      <c r="B84" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C84" s="12" t="s">
+      <c r="C84" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="D84" s="4" t="s">
+      <c r="D84" s="18"/>
+      <c r="E84" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="E84" s="4"/>
-      <c r="F84" s="8"/>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F84" s="16"/>
+      <c r="G84" s="8"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="6">
         <v>43173</v>
       </c>
@@ -2699,29 +2861,31 @@
         <v>11</v>
       </c>
       <c r="C85" s="4"/>
-      <c r="D85" s="4" t="s">
+      <c r="D85" s="4"/>
+      <c r="E85" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E85" s="4"/>
-      <c r="F85" s="8"/>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F85" s="4"/>
+      <c r="G85" s="8"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="6">
         <v>43174</v>
       </c>
-      <c r="B86" s="4" t="s">
+      <c r="B86" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C86" s="12" t="s">
+      <c r="C86" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="D86" s="4" t="s">
+      <c r="D86" s="18"/>
+      <c r="E86" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="E86" s="4"/>
-      <c r="F86" s="8"/>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F86" s="16"/>
+      <c r="G86" s="8"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="6">
         <v>43175</v>
       </c>
@@ -2731,13 +2895,14 @@
       <c r="C87" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="D87" s="4" t="s">
+      <c r="D87" s="12"/>
+      <c r="E87" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="E87" s="4"/>
-      <c r="F87" s="8"/>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F87" s="4"/>
+      <c r="G87" s="8"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="14">
         <v>43175</v>
       </c>
@@ -2747,17 +2912,19 @@
       </c>
       <c r="D88" s="13"/>
       <c r="E88" s="13"/>
-      <c r="F88" s="8"/>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F88" s="13"/>
+      <c r="G88" s="8"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="8"/>
       <c r="B89" s="8"/>
       <c r="C89" s="8"/>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
-    </row>
-    <row r="90" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="G89" s="8"/>
+    </row>
+    <row r="90" spans="1:7" ht="21" x14ac:dyDescent="0.35">
       <c r="A90" s="10" t="s">
         <v>68</v>
       </c>
@@ -2766,16 +2933,18 @@
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G90" s="8"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="8"/>
       <c r="B91" s="8"/>
       <c r="C91" s="8"/>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
-    </row>
-    <row r="92" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="G91" s="8"/>
+    </row>
+    <row r="92" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>19</v>
       </c>
@@ -2783,9 +2952,10 @@
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
       <c r="E92" s="3"/>
-      <c r="F92" s="8"/>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F92" s="3"/>
+      <c r="G92" s="8"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>1</v>
       </c>
@@ -2795,15 +2965,16 @@
       <c r="C93" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D93" s="5" t="s">
+      <c r="D93" s="5"/>
+      <c r="E93" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E93" s="5" t="s">
+      <c r="F93" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F93" s="8"/>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G93" s="8"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="6">
         <v>43178</v>
       </c>
@@ -2813,39 +2984,42 @@
       <c r="C94" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="D94" s="4" t="s">
+      <c r="D94" s="12"/>
+      <c r="E94" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="E94" s="4"/>
-      <c r="F94" s="8"/>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F94" s="4"/>
+      <c r="G94" s="8"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="6">
         <v>43179</v>
       </c>
-      <c r="B95" s="4" t="s">
+      <c r="B95" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C95" s="12" t="s">
+      <c r="C95" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="D95" s="4" t="s">
+      <c r="D95" s="18"/>
+      <c r="E95" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="E95" s="4"/>
-      <c r="F95" s="8"/>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F95" s="16"/>
+      <c r="G95" s="8"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="6"/>
-      <c r="B96" s="4"/>
-      <c r="C96" s="12" t="s">
+      <c r="B96" s="16"/>
+      <c r="C96" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="D96" s="4"/>
-      <c r="E96" s="4"/>
-      <c r="F96" s="8"/>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D96" s="18"/>
+      <c r="E96" s="16"/>
+      <c r="F96" s="16"/>
+      <c r="G96" s="8"/>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="6">
         <v>43180</v>
       </c>
@@ -2853,39 +3027,42 @@
         <v>11</v>
       </c>
       <c r="C97" s="12"/>
-      <c r="D97" s="4" t="s">
+      <c r="D97" s="12"/>
+      <c r="E97" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E97" s="4"/>
-      <c r="F97" s="8"/>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F97" s="4"/>
+      <c r="G97" s="8"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="6">
         <v>43178</v>
       </c>
-      <c r="B98" s="4" t="s">
+      <c r="B98" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C98" s="12" t="s">
+      <c r="C98" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="D98" s="4" t="s">
+      <c r="D98" s="18"/>
+      <c r="E98" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="E98" s="4"/>
-      <c r="F98" s="8"/>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F98" s="16"/>
+      <c r="G98" s="8"/>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="6"/>
-      <c r="B99" s="4"/>
-      <c r="C99" s="12" t="s">
+      <c r="B99" s="16"/>
+      <c r="C99" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="D99" s="4"/>
-      <c r="E99" s="4"/>
-      <c r="F99" s="8"/>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D99" s="18"/>
+      <c r="E99" s="16"/>
+      <c r="F99" s="16"/>
+      <c r="G99" s="8"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="6">
         <v>43182</v>
       </c>
@@ -2893,13 +3070,14 @@
         <v>13</v>
       </c>
       <c r="C100" s="4"/>
-      <c r="D100" s="4" t="s">
+      <c r="D100" s="4"/>
+      <c r="E100" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="E100" s="4"/>
-      <c r="F100" s="8"/>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F100" s="4"/>
+      <c r="G100" s="8"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="14">
         <v>43182</v>
       </c>
@@ -2909,15 +3087,17 @@
       </c>
       <c r="D101" s="13"/>
       <c r="E101" s="13"/>
-      <c r="F101" s="8"/>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F101" s="13"/>
+      <c r="G101" s="8"/>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="8"/>
       <c r="B102" s="8"/>
       <c r="C102" s="8"/>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
+      <c r="G102" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/KT1/KT1.2/KT1.2.1 Globale Planning/Globale Planning v1.0.0.xlsx
+++ b/KT1/KT1.2/KT1.2.1 Globale Planning/Globale Planning v1.0.0.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kenley Strik\Documents\GitKraken\Periode_11_Proef_PVB_Tim_Kenley\Periode_11_Proef_PVB_Tim_Kenley\KT1\KT1.2\KT1.2.1 Globale Planning\"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="87">
   <si>
     <t>Globale Planning</t>
   </si>
@@ -311,11 +311,14 @@
   <si>
     <t>↓</t>
   </si>
+  <si>
+    <t>1,5 uur</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1643,7 +1646,7 @@
   <dimension ref="A1:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2154,7 +2157,7 @@
         <v>20</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G33" s="8"/>
     </row>
@@ -2215,9 +2218,11 @@
       </c>
       <c r="D37" s="16"/>
       <c r="E37" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="F37" s="16"/>
+        <v>86</v>
+      </c>
+      <c r="F37" s="16" t="s">
+        <v>24</v>
+      </c>
       <c r="G37" s="8"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -2227,8 +2232,12 @@
         <v>42</v>
       </c>
       <c r="D38" s="16"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="16"/>
+      <c r="E38" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="F38" s="16" t="s">
+        <v>24</v>
+      </c>
       <c r="G38" s="8"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -2238,8 +2247,12 @@
         <v>43</v>
       </c>
       <c r="D39" s="16"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="16"/>
+      <c r="E39" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="F39" s="16" t="s">
+        <v>23</v>
+      </c>
       <c r="G39" s="8"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -2249,8 +2262,12 @@
         <v>44</v>
       </c>
       <c r="D40" s="16"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="16"/>
+      <c r="E40" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="F40" s="16" t="s">
+        <v>23</v>
+      </c>
       <c r="G40" s="8"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
